--- a/biology/Zoologie/Gendarme_(insecte)/Gendarme_(insecte).xlsx
+++ b/biology/Zoologie/Gendarme_(insecte)/Gendarme_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhocoris apterus
 Le gendarme, ou pyrrhocore, Pyrrhocoris apterus (du grec ancien : πυρρός / purrós, « roux », et κόρις / kóris, « punaise »), appelé aussi diable ou cherche-midi, en raison de son attirance pour le soleil au zénith, est une espèce d'insectes hémiptères hétéroptères de la famille des Pyrrhocoridae.
-Bien d'autres noms vernaculaires ou régionaux lui sont attribués : soldat, punaise rouge, punaise de feu, suisse, diable cherche-midi, bête indienne ou pompier[2].
+Bien d'autres noms vernaculaires ou régionaux lui sont attribués : soldat, punaise rouge, punaise de feu, suisse, diable cherche-midi, bête indienne ou pompier.
 Eurasiatique, c'est la punaise d'Europe la plus commune et la plus répandue : on la rencontre dans les zones tempérées d'Europe et dans la zone méditerranéenne, jusqu'à l'Inde, partout sauf en haute montagne.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom gendarme vient du fait que les couleurs et motifs rappellent les habits rouge et noir des gendarmes à partir de la fin du XVIIe siècle. C'est pour les mêmes raisons que le pyrrhocore est également appelé Soldat ou Suisse[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom gendarme vient du fait que les couleurs et motifs rappellent les habits rouge et noir des gendarmes à partir de la fin du XVIIe siècle. C'est pour les mêmes raisons que le pyrrhocore est également appelé Soldat ou Suisse,.
 </t>
         </is>
       </c>
@@ -545,13 +559,50 @@
           <t>Apparence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur taille est d'environ 10 mm (de 9 à 11,5 mm de longueur). L'animal est doté d'un squelette externe dont la cuticule présente des dessins rouge orangé et noirs évoquant un masque de style africain, et qui découragerait certains prédateurs (coloration aposématique). Il ressemble aussi à deux paires d'ailes rouges marquées chacune d'un point noir, restes d'une lente évolution[réf. souhaitée], faisant croire à un insecte prêt à s'envoler.
 Le gendarme a une tête noire non tachetée (1) avec un œil rouge-violet de chaque côté (2). Le bouclier cervical ou pronotum (3) est de forme carrée, une tache noire carrée au centre et un bord rouge. Derrière le pronotum se trouve le scutellum ou bouclier (4), une petite plaque triangulaire derrière laquelle se trouvent les ailes antérieures. Le scutellum est de couleur noire, mais comme la partie arrière des ailes est ourlée de noir et est juxtaposée au scutellum, le scutellum fait visuellement partie d'un plus grand triangle noir. Les ailes antérieures sont composées chez ce type d'insectes, de différentes parties. La partie arrière nommée clavus (5) est noire, la partie centrale est le corium (6) et la partie externe est l'embolium (7). Le corium et l'embolium sont tous deux de couleur rouge vif, mais présentent un cunéus, une petite tache noire à l'avant (8) et un point nettement plus grand sur le dos (9). À l'arrière, les segments de l'abdomen des gendarmes dépassent des deux côtés, causés par les latérogites. Ce sont de petites plaques situées à l'extérieur des plaques arrière réelles du tergum.
 La teinte et la forme des taches sont conditionnées par des éléments extérieurs : l'étendue des pigments noirs est influencée par la température. Les individus brachyptères, voire aptères, sont très fréquents. Ceux pourvus de longues ailes sont incapables de voler. Ils vivent souvent en grands groupes.
-Confusions possibles
-La punaise la plus ressemblante est Scantius aegyptus, une punaise méditerranéenne, également introduite en Californie, et qui appartient aussi à la famille des Pyrrhocoridae. Elle ne présente toutefois pas de petit point noir à l'avant de la corie.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gendarme_(insecte)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gendarme_(insecte)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Apparence</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La punaise la plus ressemblante est Scantius aegyptus, une punaise méditerranéenne, également introduite en Californie, et qui appartient aussi à la famille des Pyrrhocoridae. Elle ne présente toutefois pas de petit point noir à l'avant de la corie.  
 L'aspect de certaines punaises rouge et noir du genre Eurydema peut prêter à confusion (notamment la Punaise rouge du chou), mais une observation attentive de leur morphologie générale et des motifs permet aisément de les distinguer d'un gendarme. Les punaises de la famille des Lygaeidae (par exemple les genres Lygaeus, Tropidothorax (en), voire Melanocoryphus) ont aussi des motifs où dominent le rouge et le noir et peuvent être confondus avec le gendarme par les non-initiés. 
 </t>
         </is>
